--- a/datas/crm_login.xlsx
+++ b/datas/crm_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRMZDH\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9BB584D-3F07-4EBE-B757-4AF93F26C7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2819731E-EADC-4A5C-89DF-F3C6EB6BA94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3098" yWindow="1170" windowWidth="14400" windowHeight="8438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2798" windowWidth="14400" windowHeight="8437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>zhaijun</t>
   </si>
   <si>
-    <t>zj697366</t>
-  </si>
-  <si>
     <t>tangli</t>
   </si>
   <si>
@@ -41,13 +38,17 @@
   </si>
   <si>
     <t>huachan</t>
+  </si>
+  <si>
+    <t>zj12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +59,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -84,8 +93,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,7 +378,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -387,28 +399,29 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datas/crm_login.xlsx
+++ b/datas/crm_login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRMZDH\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2819731E-EADC-4A5C-89DF-F3C6EB6BA94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4939F-564E-47B1-A28A-E219FBDED15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2798" windowWidth="14400" windowHeight="8437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="14400" windowHeight="8438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>huachan</t>
   </si>
   <si>
-    <t>zj12345</t>
+    <t>zj123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
